--- a/visitors.xlsx
+++ b/visitors.xlsx
@@ -408,11 +408,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2020-01-26 22:59:31</t>
+          <t>2020-02-02 16:59:15</t>
         </is>
       </c>
     </row>

--- a/visitors.xlsx
+++ b/visitors.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,24 +395,116 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>401123087</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mozaze</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>moza</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2020-02-05 09:53:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>507549293</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Kharisma Muzaki</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>muzaki_gh</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2020-02-02 16:59:15</t>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2020-02-05 09:53:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>507123087</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Anada Badu</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>anada</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2020-02-05 09:53:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>123123087</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Harris Setyawan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>harris</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>19</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2020-02-05 09:53:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3122331</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Riko Alfianto</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>riko</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2020-02-05 09:53:55</t>
         </is>
       </c>
     </row>

--- a/visitors.xlsx
+++ b/visitors.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -56,11 +59,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -395,117 +399,107 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>401123087</v>
+        <v>123569293</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mozaze</t>
+          <t>Harris Ishaq</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>moza</t>
+          <t>harris</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2020-02-05 09:53:55</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>43862</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>507549293</v>
+        <v>453435435</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kharisma Muzaki</t>
+          <t>Madina Ali</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>muzaki_gh</t>
+          <t>ali</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2020-02-05 09:53:55</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>43874</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>507123087</v>
+        <v>507549112</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anada Badu</t>
+          <t>Ibrahim Mustofa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>anada</t>
+          <t>mustofa</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2020-02-05 09:53:55</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>43872</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>123123087</v>
+        <v>507549293</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Harris Setyawan</t>
+          <t>Kharisma Muzaki</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>harris</t>
+          <t>muzaki_gh</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2020-02-05 09:53:55</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>43872.02118055556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3122331</v>
+        <v>5213435435</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Riko Alfianto</t>
+          <t>Wahyu Iskandar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>riko</t>
+          <t>wahyu</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2020-02-05 09:53:55</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>43873</v>
       </c>
     </row>
   </sheetData>
